--- a/data_excel/TinhThanh.xlsx
+++ b/data_excel/TinhThanh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duong\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LH COMPUTER\Desktop\agri-tour-be\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E303282B-7DB5-49CC-BA01-386F77F7C66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5127EB5-04E2-40F8-A42A-FCBE500153B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21612" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -406,13 +406,13 @@
     <t>Tỉnh Cà Mau</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -475,7 +475,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,36 +760,36 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -888,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -910,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -921,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -954,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -965,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -976,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
